--- a/进度表.xlsx
+++ b/进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>倒计时</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>节食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A251"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,78 +384,81 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>236</v>
       </c>
